--- a/Mifos Automation Excels/Client/Scenario6-Chaithanyaprod-TR2-EARLY-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/Scenario6-Chaithanyaprod-TR2-EARLY-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -594,7 +594,7 @@
         <v>4695.26</v>
       </c>
       <c r="F3" s="7">
-        <v>3396.85</v>
+        <v>3139.43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1427,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2857</v>
+        <v>225</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2856</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2854</v>
+        <v>222</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2851</v>
+        <v>221</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -1596,6 +1596,18 @@
       <c r="J5" s="6">
         <v>25000</v>
       </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
